--- a/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>24,4; 29,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>26,69; 32,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>23,08; 29,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>25,38; 32,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>30,07; 35,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>37,26; 43,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>35,63; 42,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>37,45; 43,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,35; 32,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>33,6; 37,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,11; 35,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>33,52; 37,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>12,98; 16,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>19,08; 22,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>15,54; 18,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>16,02; 20,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,82; 25,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>27,85; 32,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>20,68; 24,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>23,54; 39,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,31; 19,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,94; 26,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>18,46; 21,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>20,46; 29,72</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>12,56; 18,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>9,63; 16,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>12,07; 18,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,09; 22,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>18,42; 26,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>16,73; 25,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>16,37; 23,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>20,87; 26,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>16,11; 20,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>14,25; 19,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,5; 20,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>19,35; 23,83</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,28; 20,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>20,93; 23,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,41; 20,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,48; 21,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,0; 28,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,03; 34,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,27; 28,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,34; 38,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,59; 23,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,5; 28,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,91; 23,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>23,64; 29,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>50,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>56,6%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 29,94</t>
+          <t>48,69; 55,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,69; 32,97</t>
+          <t>48,32; 54,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,21</t>
+          <t>51,64; 58,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,38; 32,23</t>
+          <t>46,19; 54,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,3</t>
+          <t>52,79; 58,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,26; 43,04</t>
+          <t>60,4; 65,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,63; 42,11</t>
+          <t>58,05; 64,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 43,49</t>
+          <t>57,94; 63,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,35; 32,16</t>
+          <t>51,76; 55,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 37,87</t>
+          <t>56,05; 60,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,11; 35,54</t>
+          <t>55,98; 60,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,52; 37,96</t>
+          <t>54,34; 58,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>47,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 16,34</t>
+          <t>35,54; 40,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 22,99</t>
+          <t>42,16; 46,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 18,78</t>
+          <t>41,88; 46,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,01</t>
+          <t>33,17; 38,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,82; 25,09</t>
+          <t>48,84; 53,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,85; 32,48</t>
+          <t>53,42; 58,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 24,7</t>
+          <t>48,47; 52,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 39,23</t>
+          <t>43,89; 55,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,95</t>
+          <t>42,89; 46,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 26,73</t>
+          <t>48,01; 51,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,19</t>
+          <t>45,41; 48,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 29,72</t>
+          <t>39,66; 47,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>42,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,61</t>
+          <t>34,4; 42,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,46</t>
+          <t>36,81; 46,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 18,75</t>
+          <t>37,45; 46,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,79</t>
+          <t>35,41; 43,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 26,07</t>
+          <t>48,04; 57,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 25,37</t>
+          <t>44,52; 54,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 23,46</t>
+          <t>44,05; 52,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 26,64</t>
+          <t>42,69; 49,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,93</t>
+          <t>41,76; 48,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 19,41</t>
+          <t>41,7; 48,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,28</t>
+          <t>41,85; 47,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,83</t>
+          <t>40,48; 45,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>57,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>45,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 20,03</t>
+          <t>40,69; 44,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 23,84</t>
+          <t>44,18; 47,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 20,18</t>
+          <t>44,35; 47,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,5</t>
+          <t>37,12; 41,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,0; 28,09</t>
+          <t>51,52; 54,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 34,47</t>
+          <t>55,95; 59,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,3</t>
+          <t>51,32; 54,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 38,71</t>
+          <t>48,17; 56,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 23,76</t>
+          <t>46,56; 49,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 28,69</t>
+          <t>50,67; 53,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 23,96</t>
+          <t>48,49; 50,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,64</t>
+          <t>43,43; 48,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,21%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>57,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,69; 55,04</t>
+          <t>49,49; 55,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,32; 54,78</t>
+          <t>51,1; 57,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,64; 58,83</t>
+          <t>52,85; 60,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,19; 54,08</t>
+          <t>47,89; 56,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,79; 58,26</t>
+          <t>53,37; 58,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,4; 65,61</t>
+          <t>64,51; 69,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,05; 64,14</t>
+          <t>58,77; 64,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,94; 63,59</t>
+          <t>59,03; 64,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 55,9</t>
+          <t>52,37; 56,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,05; 60,45</t>
+          <t>59,67; 63,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,98; 60,86</t>
+          <t>57,01; 61,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,34; 58,75</t>
+          <t>55,56; 60,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>52,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>43,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,54; 40,3</t>
+          <t>36,45; 41,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,16; 46,67</t>
+          <t>44,9; 49,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,88; 46,29</t>
+          <t>43,95; 48,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,17; 38,97</t>
+          <t>23,85; 40,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,84; 53,8</t>
+          <t>50,38; 55,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,42; 58,23</t>
+          <t>57,21; 61,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,47; 52,92</t>
+          <t>50,5; 54,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,89; 55,88</t>
+          <t>46,68; 65,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,89; 46,3</t>
+          <t>43,94; 47,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,01; 51,53</t>
+          <t>51,29; 54,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,41; 48,68</t>
+          <t>47,4; 50,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,66; 47,44</t>
+          <t>36,99; 51,01</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>44,48%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,4; 42,89</t>
+          <t>35,21; 43,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,81; 46,59</t>
+          <t>39,9; 49,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,45; 46,57</t>
+          <t>40,0; 49,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,41; 43,37</t>
+          <t>37,05; 45,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,04; 57,55</t>
+          <t>48,9; 58,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,52; 54,07</t>
+          <t>49,71; 59,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,05; 52,9</t>
+          <t>46,47; 55,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,69; 49,54</t>
+          <t>44,2; 51,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,76; 48,23</t>
+          <t>42,62; 49,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,7; 48,75</t>
+          <t>45,86; 53,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,85; 47,78</t>
+          <t>44,64; 50,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 45,63</t>
+          <t>41,88; 47,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>61,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>55,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>46,47%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,69; 44,15</t>
+          <t>41,5; 44,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,18; 47,81</t>
+          <t>47,13; 50,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,35; 47,76</t>
+          <t>46,36; 49,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,12; 41,24</t>
+          <t>29,11; 42,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,52; 54,91</t>
+          <t>52,49; 55,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,95; 59,5</t>
+          <t>60,06; 63,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,32; 54,86</t>
+          <t>53,04; 56,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,17; 56,42</t>
+          <t>50,32; 64,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,56; 49,1</t>
+          <t>47,5; 49,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,67; 53,19</t>
+          <t>54,15; 56,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 50,89</t>
+          <t>50,36; 52,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,43; 48,12</t>
+          <t>41,94; 51,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,49; 55,89</t>
+          <t>49,36; 55,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,1; 57,61</t>
+          <t>51,13; 57,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,85; 60,02</t>
+          <t>52,63; 60,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,89; 56,0</t>
+          <t>47,6; 55,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,37; 58,7</t>
+          <t>53,32; 58,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,51; 69,73</t>
+          <t>64,5; 69,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,77; 64,89</t>
+          <t>58,52; 64,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,03; 64,69</t>
+          <t>59,27; 64,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,37; 56,54</t>
+          <t>52,39; 56,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,67; 63,95</t>
+          <t>59,67; 64,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,01; 61,8</t>
+          <t>57,17; 61,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,56; 60,17</t>
+          <t>55,47; 60,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 41,19</t>
+          <t>36,51; 41,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,9; 49,38</t>
+          <t>44,98; 49,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,95; 48,47</t>
+          <t>43,59; 48,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 40,08</t>
+          <t>25,0; 40,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,38; 55,38</t>
+          <t>50,31; 55,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,21; 61,79</t>
+          <t>57,32; 61,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,5; 54,89</t>
+          <t>50,27; 54,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,68; 65,06</t>
+          <t>46,17; 66,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,94; 47,37</t>
+          <t>44,04; 47,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,29; 54,8</t>
+          <t>51,34; 54,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,4; 50,69</t>
+          <t>47,49; 50,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,99; 51,01</t>
+          <t>36,93; 51,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,21; 43,85</t>
+          <t>34,7; 43,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,9; 49,48</t>
+          <t>40,23; 50,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,0; 49,22</t>
+          <t>40,26; 48,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,05; 45,35</t>
+          <t>37,09; 45,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,9; 58,28</t>
+          <t>48,07; 57,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,71; 59,31</t>
+          <t>49,24; 59,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,47; 55,03</t>
+          <t>46,49; 55,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,2; 51,02</t>
+          <t>44,28; 51,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,62; 49,13</t>
+          <t>42,39; 49,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,86; 53,19</t>
+          <t>45,95; 53,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,64; 50,65</t>
+          <t>44,33; 50,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,88; 47,11</t>
+          <t>41,72; 47,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,5; 44,95</t>
+          <t>41,41; 44,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,13; 50,7</t>
+          <t>47,12; 50,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 49,84</t>
+          <t>46,19; 49,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 42,22</t>
+          <t>29,24; 42,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,49; 55,96</t>
+          <t>52,47; 55,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,06; 63,62</t>
+          <t>60,2; 63,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,04; 56,54</t>
+          <t>53,12; 56,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,32; 64,1</t>
+          <t>50,29; 64,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 49,99</t>
+          <t>47,59; 50,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,15; 56,7</t>
+          <t>54,11; 56,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,36; 52,8</t>
+          <t>50,27; 52,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,94; 51,15</t>
+          <t>41,97; 50,52</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>541705</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>531328</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>425256</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>264622</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>737011</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>898961</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>613793</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>461719</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1278715</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1430289</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1039049</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>726340</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>509273; 575863</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>498318; 563555</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>396993; 453442</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>242932; 284195</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>701184; 775025</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>862940; 930937</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>582063; 644113</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>441906; 481488</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1229523; 1330650</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1379826; 1481263</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>999836; 1082553</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>696690; 756245</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>658072</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>926451</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>955070</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>798879</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>840541</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1049070</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1045553</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1182106</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1498613</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1975520</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2000623</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1980985</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>618267; 704953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>883440; 970298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>905075; 999809</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>570385; 919412</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>798710; 880509</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1007612; 1089573</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>999484; 1089548</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1030592; 1484331</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1445149; 1556880</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1910661; 2038375</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1930492; 2064432</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1666873; 2321619</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>216336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>216468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>244585</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>264832</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>253347</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>249215</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>278082</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>314279</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>469683</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>465683</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>522667</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>579112</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>191362; 238144</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>193571; 242086</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>220203; 267494</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>239058; 293845</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>229027; 272946</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>225852; 271832</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>255310; 303102</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>291164; 337387</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>435663; 504473</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>431856; 498733</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>485914; 554259</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>543189; 616426</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1564</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1516</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1416113</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1674247</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1624911</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1328333</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1830898</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2197245</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1937428</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1958104</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3247011</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3871492</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3562339</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3286436</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1356877; 1473889</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1611248; 1736600</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1560023; 1682211</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1004857; 1448320</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1773088; 1890301</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2139583; 2263492</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1876160; 1998774</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1828160; 2327713</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3167492; 3328852</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3773341; 3950958</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3473358; 3648077</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2968104; 3572404</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>